--- a/2016년 수강료 계산 6월/방송댄스수강료.xlsx
+++ b/2016년 수강료 계산 6월/방송댄스수강료.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>*주야</t>
   </si>
@@ -309,37 +309,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -1804,7 +1804,9 @@
         <f t="shared" si="1"/>
         <v>19580</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="9" t="s">
